--- a/ScBzaTrainsonlyInOneStation.xlsx
+++ b/ScBzaTrainsonlyInOneStation.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$313</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="809">
   <si>
     <t>TrainNo</t>
   </si>
@@ -2428,6 +2429,27 @@
   </si>
   <si>
     <t>18:40:00</t>
+  </si>
+  <si>
+    <t>bza2sc</t>
+  </si>
+  <si>
+    <t>sc2bza</t>
+  </si>
+  <si>
+    <t>journey times 1-2</t>
+  </si>
+  <si>
+    <t>journeytimes 2-1</t>
+  </si>
+  <si>
+    <t>Service times s1- r2</t>
+  </si>
+  <si>
+    <t>Servicetimes s2-r2</t>
+  </si>
+  <si>
+    <t>Service Times s2-r4</t>
   </si>
 </sst>
 </file>
@@ -2747,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="G313" sqref="G2:G313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,14 +2832,14 @@
         <v>595</v>
       </c>
       <c r="G2">
-        <f>SUM(H2,-I2)</f>
+        <f t="shared" ref="G2:G40" si="0">SUM(H2,-I2)</f>
         <v>1410</v>
       </c>
       <c r="H2">
         <v>1425</v>
       </c>
       <c r="I2">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" ref="I2:I40" si="1">_xlfn.MODE.SNGL(I$41:I$313)</f>
         <v>15</v>
       </c>
       <c r="J2">
@@ -2844,14 +2866,14 @@
         <v>681</v>
       </c>
       <c r="G3">
-        <f>SUM(H3,-I3)</f>
+        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
       <c r="H3">
         <v>1415</v>
       </c>
       <c r="I3">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J3">
@@ -2878,14 +2900,14 @@
         <v>728</v>
       </c>
       <c r="G4">
-        <f>SUM(H4,-I4)</f>
+        <f t="shared" si="0"/>
         <v>1375</v>
       </c>
       <c r="H4">
         <v>1390</v>
       </c>
       <c r="I4">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J4">
@@ -2912,14 +2934,14 @@
         <v>716</v>
       </c>
       <c r="G5">
-        <f>SUM(H5,-I5)</f>
+        <f t="shared" si="0"/>
         <v>1370.0000000000002</v>
       </c>
       <c r="H5">
         <v>1385.0000000000002</v>
       </c>
       <c r="I5">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J5">
@@ -2946,14 +2968,14 @@
         <v>726</v>
       </c>
       <c r="G6">
-        <f>SUM(H6,-I6)</f>
+        <f t="shared" si="0"/>
         <v>1365</v>
       </c>
       <c r="H6">
         <v>1380</v>
       </c>
       <c r="I6">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J6">
@@ -2980,14 +3002,14 @@
         <v>684</v>
       </c>
       <c r="G7">
-        <f>SUM(H7,-I7)</f>
+        <f t="shared" si="0"/>
         <v>1305</v>
       </c>
       <c r="H7">
         <v>1320</v>
       </c>
       <c r="I7">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J7">
@@ -3014,14 +3036,14 @@
         <v>684</v>
       </c>
       <c r="G8">
-        <f>SUM(H8,-I8)</f>
+        <f t="shared" si="0"/>
         <v>1305</v>
       </c>
       <c r="H8">
         <v>1320</v>
       </c>
       <c r="I8">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J8">
@@ -3048,14 +3070,14 @@
         <v>620</v>
       </c>
       <c r="G9">
-        <f>SUM(H9,-I9)</f>
+        <f t="shared" si="0"/>
         <v>1285</v>
       </c>
       <c r="H9">
         <v>1300</v>
       </c>
       <c r="I9">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J9">
@@ -3082,14 +3104,14 @@
         <v>699</v>
       </c>
       <c r="G10">
-        <f>SUM(H10,-I10)</f>
+        <f t="shared" si="0"/>
         <v>1265</v>
       </c>
       <c r="H10">
         <v>1280</v>
       </c>
       <c r="I10">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J10">
@@ -3116,14 +3138,14 @@
         <v>702</v>
       </c>
       <c r="G11">
-        <f>SUM(H11,-I11)</f>
+        <f t="shared" si="0"/>
         <v>1245</v>
       </c>
       <c r="H11">
         <v>1260</v>
       </c>
       <c r="I11">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J11">
@@ -3150,14 +3172,14 @@
         <v>658</v>
       </c>
       <c r="G12">
-        <f>SUM(H12,-I12)</f>
+        <f t="shared" si="0"/>
         <v>1235.0000000000002</v>
       </c>
       <c r="H12">
         <v>1250.0000000000002</v>
       </c>
       <c r="I12">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J12">
@@ -3184,14 +3206,14 @@
         <v>680</v>
       </c>
       <c r="G13">
-        <f>SUM(H13,-I13)</f>
+        <f t="shared" si="0"/>
         <v>1190.0000000000002</v>
       </c>
       <c r="H13">
         <v>1205.0000000000002</v>
       </c>
       <c r="I13">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J13">
@@ -3218,14 +3240,14 @@
         <v>603</v>
       </c>
       <c r="G14">
-        <f>SUM(H14,-I14)</f>
+        <f t="shared" si="0"/>
         <v>1175</v>
       </c>
       <c r="H14">
         <v>1190</v>
       </c>
       <c r="I14">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J14">
@@ -3252,14 +3274,14 @@
         <v>788</v>
       </c>
       <c r="G15">
-        <f>SUM(H15,-I15)</f>
+        <f t="shared" si="0"/>
         <v>1170</v>
       </c>
       <c r="H15">
         <v>1185</v>
       </c>
       <c r="I15">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J15">
@@ -3286,14 +3308,14 @@
         <v>801</v>
       </c>
       <c r="G16">
-        <f>SUM(H16,-I16)</f>
+        <f t="shared" si="0"/>
         <v>1105</v>
       </c>
       <c r="H16">
         <v>1120</v>
       </c>
       <c r="I16">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J16">
@@ -3320,14 +3342,14 @@
         <v>785</v>
       </c>
       <c r="G17">
-        <f>SUM(H17,-I17)</f>
+        <f t="shared" si="0"/>
         <v>1074.9999999999998</v>
       </c>
       <c r="H17">
         <v>1089.9999999999998</v>
       </c>
       <c r="I17">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J17">
@@ -3354,14 +3376,14 @@
         <v>764</v>
       </c>
       <c r="G18">
-        <f>SUM(H18,-I18)</f>
+        <f t="shared" si="0"/>
         <v>1070</v>
       </c>
       <c r="H18">
         <v>1085</v>
       </c>
       <c r="I18">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J18">
@@ -3388,14 +3410,14 @@
         <v>758</v>
       </c>
       <c r="G19">
-        <f>SUM(H19,-I19)</f>
+        <f t="shared" si="0"/>
         <v>1060</v>
       </c>
       <c r="H19">
         <v>1075</v>
       </c>
       <c r="I19">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J19">
@@ -3422,14 +3444,14 @@
         <v>679</v>
       </c>
       <c r="G20">
-        <f>SUM(H20,-I20)</f>
+        <f t="shared" si="0"/>
         <v>1045</v>
       </c>
       <c r="H20">
         <v>1060</v>
       </c>
       <c r="I20">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J20">
@@ -3456,14 +3478,14 @@
         <v>652</v>
       </c>
       <c r="G21">
-        <f>SUM(H21,-I21)</f>
+        <f t="shared" si="0"/>
         <v>984.99999999999989</v>
       </c>
       <c r="H21">
         <v>999.99999999999989</v>
       </c>
       <c r="I21">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J21">
@@ -3490,14 +3512,14 @@
         <v>762</v>
       </c>
       <c r="G22">
-        <f>SUM(H22,-I22)</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="H22">
         <v>975</v>
       </c>
       <c r="I22">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J22">
@@ -3524,14 +3546,14 @@
         <v>757</v>
       </c>
       <c r="G23">
-        <f>SUM(H23,-I23)</f>
+        <f t="shared" si="0"/>
         <v>945</v>
       </c>
       <c r="H23">
         <v>960</v>
       </c>
       <c r="I23">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J23">
@@ -3558,14 +3580,14 @@
         <v>773</v>
       </c>
       <c r="G24">
-        <f>SUM(H24,-I24)</f>
+        <f t="shared" si="0"/>
         <v>910.00000000000011</v>
       </c>
       <c r="H24">
         <v>925.00000000000011</v>
       </c>
       <c r="I24">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J24">
@@ -3592,14 +3614,14 @@
         <v>730</v>
       </c>
       <c r="G25">
-        <f>SUM(H25,-I25)</f>
+        <f t="shared" si="0"/>
         <v>904.99999999999989</v>
       </c>
       <c r="H25">
         <v>919.99999999999989</v>
       </c>
       <c r="I25">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J25">
@@ -3626,14 +3648,14 @@
         <v>748</v>
       </c>
       <c r="G26">
-        <f>SUM(H26,-I26)</f>
+        <f t="shared" si="0"/>
         <v>885</v>
       </c>
       <c r="H26">
         <v>900</v>
       </c>
       <c r="I26">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J26">
@@ -3660,14 +3682,14 @@
         <v>748</v>
       </c>
       <c r="G27">
-        <f>SUM(H27,-I27)</f>
+        <f t="shared" si="0"/>
         <v>885</v>
       </c>
       <c r="H27">
         <v>900</v>
       </c>
       <c r="I27">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J27">
@@ -3694,14 +3716,14 @@
         <v>641</v>
       </c>
       <c r="G28">
-        <f>SUM(H28,-I28)</f>
+        <f t="shared" si="0"/>
         <v>870</v>
       </c>
       <c r="H28">
         <v>885</v>
       </c>
       <c r="I28">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J28">
@@ -3728,14 +3750,14 @@
         <v>735</v>
       </c>
       <c r="G29">
-        <f>SUM(H29,-I29)</f>
+        <f t="shared" si="0"/>
         <v>795</v>
       </c>
       <c r="H29">
         <v>810</v>
       </c>
       <c r="I29">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J29">
@@ -3762,14 +3784,14 @@
         <v>739</v>
       </c>
       <c r="G30">
-        <f>SUM(H30,-I30)</f>
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
       <c r="H30">
         <v>765</v>
       </c>
       <c r="I30">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J30">
@@ -3796,14 +3818,14 @@
         <v>720</v>
       </c>
       <c r="G31">
-        <f>SUM(H31,-I31)</f>
+        <f t="shared" si="0"/>
         <v>730.00000000000011</v>
       </c>
       <c r="H31">
         <v>745.00000000000011</v>
       </c>
       <c r="I31">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J31">
@@ -3830,14 +3852,14 @@
         <v>749</v>
       </c>
       <c r="G32">
-        <f>SUM(H32,-I32)</f>
+        <f t="shared" si="0"/>
         <v>635</v>
       </c>
       <c r="H32">
         <v>650</v>
       </c>
       <c r="I32">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J32">
@@ -3864,14 +3886,14 @@
         <v>640</v>
       </c>
       <c r="G33">
-        <f>SUM(H33,-I33)</f>
+        <f t="shared" si="0"/>
         <v>585</v>
       </c>
       <c r="H33">
         <v>600</v>
       </c>
       <c r="I33">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J33">
@@ -3898,14 +3920,14 @@
         <v>784</v>
       </c>
       <c r="G34">
-        <f>SUM(H34,-I34)</f>
+        <f t="shared" si="0"/>
         <v>484.99999999999994</v>
       </c>
       <c r="H34">
         <v>499.99999999999994</v>
       </c>
       <c r="I34">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J34">
@@ -3932,14 +3954,14 @@
         <v>690</v>
       </c>
       <c r="G35">
-        <f>SUM(H35,-I35)</f>
+        <f t="shared" si="0"/>
         <v>435</v>
       </c>
       <c r="H35">
         <v>450</v>
       </c>
       <c r="I35">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J35">
@@ -3966,14 +3988,14 @@
         <v>682</v>
       </c>
       <c r="G36">
-        <f>SUM(H36,-I36)</f>
+        <f t="shared" si="0"/>
         <v>425.00000000000006</v>
       </c>
       <c r="H36">
         <v>440.00000000000006</v>
       </c>
       <c r="I36">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J36">
@@ -4000,14 +4022,14 @@
         <v>632</v>
       </c>
       <c r="G37">
-        <f>SUM(H37,-I37)</f>
+        <f t="shared" si="0"/>
         <v>414.99999999999994</v>
       </c>
       <c r="H37">
         <v>429.99999999999994</v>
       </c>
       <c r="I37">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J37">
@@ -4034,14 +4056,14 @@
         <v>761</v>
       </c>
       <c r="G38">
-        <f>SUM(H38,-I38)</f>
+        <f t="shared" si="0"/>
         <v>354.99999999999994</v>
       </c>
       <c r="H38">
         <v>369.99999999999994</v>
       </c>
       <c r="I38">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J38">
@@ -4068,14 +4090,14 @@
         <v>619</v>
       </c>
       <c r="G39">
-        <f>SUM(H39,-I39)</f>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="H39">
         <v>365</v>
       </c>
       <c r="I39">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J39">
@@ -4102,14 +4124,14 @@
         <v>760</v>
       </c>
       <c r="G40">
-        <f>SUM(H40,-I40)</f>
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
       <c r="H40">
         <v>360</v>
       </c>
       <c r="I40">
-        <f>_xlfn.MODE.SNGL(I$41:I$313)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J40">
@@ -12853,11 +12875,2049 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J313">
-    <sortState ref="A2:J313">
-      <sortCondition descending="1" ref="I1:I313"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J313"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P250"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C1">
+        <f>A1/(A1+A2+A3+A4)</f>
+        <v>8.943089430894309E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C2">
+        <f>A2/(A1+A3+A4+A2)</f>
+        <v>6.5040650406504072E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3">
+        <f>A3/(A3+A4+A1+A2)</f>
+        <v>0.17886178861788618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4">
+        <f>A4/(A4+A3+A2+A1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F4" t="s">
+        <v>808</v>
+      </c>
+      <c r="I4" t="s">
+        <v>804</v>
+      </c>
+      <c r="L4" t="s">
+        <v>805</v>
+      </c>
+      <c r="O4" t="s">
+        <v>806</v>
+      </c>
+      <c r="P4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>-420</v>
+      </c>
+      <c r="J5">
+        <f>-I5</f>
+        <v>420</v>
+      </c>
+      <c r="L5">
+        <v>-330</v>
+      </c>
+      <c r="M5">
+        <f>-L5</f>
+        <v>330</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>-925</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J61" si="0">-I6</f>
+        <v>925</v>
+      </c>
+      <c r="L6">
+        <v>-475</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M37" si="1">-L6</f>
+        <v>475</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>-370</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="L7">
+        <v>-395</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>395</v>
+      </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>-295</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="L8">
+        <v>-1100</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>-375</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="L9">
+        <v>-1085</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>1085</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>-345</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="L10">
+        <v>-1105</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>1105</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>-335</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="L11">
+        <v>-365</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>-360</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="L12">
+        <v>-1070</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1070</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>-160</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="L13">
+        <v>-1070</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1070</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>-1075</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1075</v>
+      </c>
+      <c r="L14">
+        <v>-1125</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>-330</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="L15">
+        <v>-410</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>-360</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="L16">
+        <v>-375</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+      <c r="P16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>-390</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="L17">
+        <v>-365</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>-360</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="L18">
+        <v>-390</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>-420</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="L19">
+        <v>-1050</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>-385</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="L20">
+        <v>-455</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>-355</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="L21">
+        <v>-470</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>470</v>
+      </c>
+      <c r="O21">
+        <v>15</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>-415</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>415</v>
+      </c>
+      <c r="L22">
+        <v>-1050</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="O22">
+        <v>15</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>-1045</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+      <c r="L23">
+        <v>-1060</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+      <c r="O23">
+        <v>15</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>-430</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="L24">
+        <v>-1060</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>-400</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="L25">
+        <v>-445</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+      <c r="O25">
+        <v>15</v>
+      </c>
+      <c r="P25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>-355</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="L26">
+        <v>-410</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="O26">
+        <v>15</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>-370</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="L27">
+        <v>-450</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="O27">
+        <v>15</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>-350</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="L28">
+        <v>-1055</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>1055</v>
+      </c>
+      <c r="O28">
+        <v>15</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>-390</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="O29">
+        <v>15</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>-450</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="O30">
+        <v>15</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>-1055</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>1055</v>
+      </c>
+      <c r="O31">
+        <v>15</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>-375</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>-1045</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>-405</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>-1120</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>-1050</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>-420</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>20</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>